--- a/信息.xlsx
+++ b/信息.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5943,6 +5943,116 @@
         </is>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>导演</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>导演</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>导演</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>导演</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>导演</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
